--- a/data/2. South Korea COVID-19 Infection Status/e.COVID-19 Testing Site.xlsx
+++ b/data/2. South Korea COVID-19 Infection Status/e.COVID-19 Testing Site.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dataset\[2020] 데이터바우처 2차\DatainBrief\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choi\Downloads\DatainBrief\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58CB051-A351-4F57-872A-407B0226B9CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62897F8-25BB-4978-A27D-33B17B49438E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6375" yWindow="1335" windowWidth="17160" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="225" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,73 +27,81 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
-    <t>충북</t>
-  </si>
-  <si>
-    <t>강원</t>
-  </si>
-  <si>
-    <t>경기</t>
-  </si>
-  <si>
-    <t>경남</t>
-  </si>
-  <si>
-    <t>경북</t>
-  </si>
-  <si>
-    <t xml:space="preserve">광주 </t>
-  </si>
-  <si>
-    <t>대구</t>
-  </si>
-  <si>
-    <t>대전</t>
-  </si>
-  <si>
-    <t>부산</t>
-  </si>
-  <si>
-    <t>서울</t>
-  </si>
-  <si>
-    <t>세종</t>
-  </si>
-  <si>
-    <t>울산</t>
-  </si>
-  <si>
-    <t>인천</t>
-  </si>
-  <si>
-    <t>전남</t>
-  </si>
-  <si>
-    <t>전북</t>
-  </si>
-  <si>
-    <t>제주</t>
-  </si>
-  <si>
-    <t>충남</t>
-  </si>
-  <si>
     <t>sidoNm</t>
   </si>
   <si>
     <t>Number</t>
+  </si>
+  <si>
+    <t>Gangwon-do</t>
+  </si>
+  <si>
+    <t>Gyeonggi-do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gyeongsangnam-do</t>
+  </si>
+  <si>
+    <t>Gyeongsangbuk-do</t>
+  </si>
+  <si>
+    <t>Gwangju</t>
+  </si>
+  <si>
+    <t>Daegu</t>
+  </si>
+  <si>
+    <t>Daejeon</t>
+  </si>
+  <si>
+    <t>Busan</t>
+  </si>
+  <si>
+    <t>Seoul</t>
+  </si>
+  <si>
+    <t>Sejong</t>
+  </si>
+  <si>
+    <t>Ulsan</t>
+  </si>
+  <si>
+    <t>Incheon</t>
+  </si>
+  <si>
+    <t>Jeollanam-do</t>
+  </si>
+  <si>
+    <t>Jeollabuk-do</t>
+  </si>
+  <si>
+    <t>Jeju</t>
+  </si>
+  <si>
+    <t>Chungcheongnam-do</t>
+  </si>
+  <si>
+    <t>Chungcheongbuk-do</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -401,158 +409,163 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>44</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/2. South Korea COVID-19 Infection Status/e.COVID-19 Testing Site.xlsx
+++ b/data/2. South Korea COVID-19 Infection Status/e.COVID-19 Testing Site.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choi\Downloads\DatainBrief\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SW-ML\Korea_Covid19\South_Korea_COVID_19_Data_Visualization\data\2. South Korea COVID-19 Infection Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62897F8-25BB-4978-A27D-33B17B49438E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7710F5B3-664A-463C-ACD9-D91DDF8D558F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="225" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12580" yWindow="6410" windowWidth="25580" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
-    <t>sidoNm</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
     <t>Gangwon-do</t>
   </si>
   <si>
@@ -83,23 +77,29 @@
   </si>
   <si>
     <t>Chungcheongbuk-do</t>
+  </si>
+  <si>
+    <t>Province Division</t>
+  </si>
+  <si>
+    <t>Station Counts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -410,155 +410,155 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
       </c>
       <c r="B2">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>44</v>
